--- a/InventorModel/ZAxis/ZDrive BOM.xlsx
+++ b/InventorModel/ZAxis/ZDrive BOM.xlsx
@@ -31,7 +31,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>C:\Users\Jack\ownCloud\Projects\CoreXY\InventorModel\Electronics\Motors\StepperMotorNema17x48mm.ipt</t>
+          <t>C:\Users\Jack\ownCloud\Projects\CrossBot\InventorModel\Electronics\Motors\StepperMotorNema17x48mm.ipt</t>
         </r>
       </text>
     </comment>
@@ -45,7 +45,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>C:\Users\Jack\ownCloud\Projects\CoreXY\InventorModel\Hardware\ZDrive\ZACMEScrew.ipt</t>
+          <t>C:\Users\Jack\ownCloud\Projects\CrossBot\InventorModel\Hardware\ZDrive\ZACMEScrew.ipt</t>
         </r>
       </text>
     </comment>
@@ -59,7 +59,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>C:\Users\Jack\ownCloud\Projects\CoreXY\InventorModel\ZAxis\ZMotorMount.ipt</t>
+          <t>C:\Users\Jack\ownCloud\Projects\CrossBot\InventorModel\ZAxis\ZMotorMount.ipt</t>
         </r>
       </text>
     </comment>
@@ -73,7 +73,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>C:\Users\Jack\ownCloud\Projects\CoreXY\InventorModel\Hardware\BoltWashers\BoltWasher4\BoltWasher4x10.iam</t>
+          <t>C:\Users\Jack\ownCloud\Projects\CrossBot\InventorModel\Hardware\BoltWashers\BoltWasher4\BoltWasher4x10.iam</t>
         </r>
       </text>
     </comment>
@@ -87,7 +87,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>C:\Users\Jack\ownCloud\Projects\CoreXY\InventorModel\Hardware\BoltWashers\BoltWasher3\BoltWasher3x8.iam</t>
+          <t>C:\Users\Jack\ownCloud\Projects\CrossBot\InventorModel\Hardware\BoltWashers\BoltWasher3\BoltWasher3x8.iam</t>
         </r>
       </text>
     </comment>
@@ -101,7 +101,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>C:\Users\Jack\ownCloud\Projects\CoreXY\InventorModel\Hardware\ZDrive\Coupler6-5mmMCOC17-5-6\MCOC17_5_6.iam</t>
+          <t>C:\Users\Jack\ownCloud\Projects\CrossBot\InventorModel\Hardware\ZDrive\ZACMEFlexCoupler.ipt</t>
         </r>
       </text>
     </comment>
@@ -110,7 +110,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="34">
   <si>
     <t>PART PREVIEW</t>
   </si>
@@ -130,9 +130,6 @@
     <t>TITLE</t>
   </si>
   <si>
-    <t>AUTHOR</t>
-  </si>
-  <si>
     <t>CATEGORY</t>
   </si>
   <si>
@@ -157,40 +154,40 @@
     <t>Stepper Motor</t>
   </si>
   <si>
+    <t>Electronics</t>
+  </si>
+  <si>
+    <t>HT17-275</t>
+  </si>
+  <si>
+    <t>Misumi</t>
+  </si>
+  <si>
+    <t>http://us.misumi-ec.com/vona2/detail/110302499550/</t>
+  </si>
+  <si>
+    <t>Z Axis Lead Screw</t>
+  </si>
+  <si>
+    <t>Hardware</t>
+  </si>
+  <si>
+    <t>MakersToolWorks</t>
+  </si>
+  <si>
+    <t>ZMotorMount</t>
+  </si>
+  <si>
+    <t>Z Motor Mount</t>
+  </si>
+  <si>
+    <t>Print</t>
+  </si>
+  <si>
     <t>Jack</t>
   </si>
   <si>
-    <t>Electronics</t>
-  </si>
-  <si>
-    <t>HT17-275</t>
-  </si>
-  <si>
-    <t>Misumi</t>
-  </si>
-  <si>
-    <t>http://us.misumi-ec.com/vona2/detail/110302499550/</t>
-  </si>
-  <si>
-    <t>MTSBRW10-310-F18-V6-S10-Q6</t>
-  </si>
-  <si>
-    <t>Z Axis Lead Screw</t>
-  </si>
-  <si>
-    <t>Hardware</t>
-  </si>
-  <si>
-    <t>http://us.misumi-ec.com/vona2/detail/110300083060</t>
-  </si>
-  <si>
-    <t>ZMotorMount</t>
-  </si>
-  <si>
-    <t>Z Motor Mount</t>
-  </si>
-  <si>
-    <t>Print</t>
+    <t>N/A</t>
   </si>
   <si>
     <t>BoltWasher4x10</t>
@@ -205,25 +202,16 @@
     <t>Bolt + Washer 3x8</t>
   </si>
   <si>
-    <t>MCOC17-5-6</t>
-  </si>
-  <si>
-    <t>PARTsolutions</t>
-  </si>
-  <si>
-    <t>Oldham Clamping Type - Standard Hole Type</t>
-  </si>
-  <si>
-    <t>MISUMI</t>
-  </si>
-  <si>
-    <t>http://us.misumi-ec.com/vona2/detail/110300123930</t>
+    <t>ZACMEFlexCoupler</t>
+  </si>
+  <si>
+    <t>Z Axis Flex Coupler</t>
   </si>
   <si>
     <t xml:space="preserve">ASSEMBLY PARTS TOTAL = </t>
   </si>
   <si>
-    <t>File created: 3/2/2015 8:34:51</t>
+    <t>File created: 19/3/2015 8:36:59</t>
   </si>
 </sst>
 </file>
@@ -662,7 +650,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L8"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
@@ -671,20 +659,19 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="24.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="41.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="50.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="50.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -718,16 +705,13 @@
       <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="B2" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="C2" s="3">
         <v>1</v>
@@ -740,68 +724,56 @@
         <v>53</v>
       </c>
       <c r="F2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2"/>
+      <c r="I2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="K2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>19</v>
-      </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>20</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="B3" s="2"/>
       <c r="C3" s="3">
         <v>1</v>
       </c>
       <c r="D3" s="4">
-        <v>42.47</v>
+        <v>18.95</v>
       </c>
       <c r="E3" s="4">
         <f>SUM(C3*D3)</f>
-        <v>42.47</v>
+        <v>18.95</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="K3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>23</v>
-      </c>
+      <c r="K3" s="2"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C4" s="3">
         <v>1</v>
@@ -814,27 +786,26 @@
         <v>0</v>
       </c>
       <c r="F4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K4" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" s="2" t="s">
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="L4" s="2"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>27</v>
       </c>
       <c r="C5" s="3">
         <v>4</v>
@@ -847,27 +818,24 @@
         <v>1.68</v>
       </c>
       <c r="F5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K5" s="2"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="L5" s="2"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>29</v>
       </c>
       <c r="C6" s="3">
         <v>4</v>
@@ -880,70 +848,58 @@
         <v>1.68</v>
       </c>
       <c r="F6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K6" s="2"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="L6" s="2"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>31</v>
       </c>
       <c r="C7" s="3">
         <v>1</v>
       </c>
       <c r="D7" s="4">
-        <v>15.59</v>
+        <v>0</v>
       </c>
       <c r="E7" s="4">
         <f>SUM(C7*D7)</f>
-        <v>15.59</v>
+        <v>0</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>31</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K7" s="2"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D8" s="5" t="s">
         <v>32</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D8" s="5" t="s">
-        <v>36</v>
       </c>
       <c r="E8" s="6">
         <f>SUM(E2:E7)</f>
-        <v>114.42000000000002</v>
+        <v>75.310000000000016</v>
       </c>
       <c r="F8" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
